--- a/ReferenceSheet.xlsx
+++ b/ReferenceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phoenix Rising Work\EaWXStartingForces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6A257-C6AA-4AAF-BE4E-CFE439E877CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75250B17-4DC9-4806-A016-DEC9FB46E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C98BEB51-DB04-4536-A48A-2E267BCF39ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="733">
   <si>
     <t>Name</t>
   </si>
@@ -1614,6 +1614,627 @@
   </si>
   <si>
     <t>Revolt_OldRep_Advanced_Factory</t>
+  </si>
+  <si>
+    <t>SD_6_Droid_Company</t>
+  </si>
+  <si>
+    <t>Storm_Cloud_Car_Company</t>
+  </si>
+  <si>
+    <t>Mandalorian_Soldier_Company</t>
+  </si>
+  <si>
+    <t>Mandalorian_Commando_Company</t>
+  </si>
+  <si>
+    <t>Canderous_Assault_Tank_Company</t>
+  </si>
+  <si>
+    <t>Mandalorian_Soldier_Team</t>
+  </si>
+  <si>
+    <t>Mandalorian_Commando_Team</t>
+  </si>
+  <si>
+    <t>Protocol_Legionnaire_Team</t>
+  </si>
+  <si>
+    <t>Overracer_Speeder_Bike_Company</t>
+  </si>
+  <si>
+    <t>SD_6_Hulk_Infantry_Droid_Company</t>
+  </si>
+  <si>
+    <t>Police_Responder_Team</t>
+  </si>
+  <si>
+    <t>Security_Trooper_Team</t>
+  </si>
+  <si>
+    <t>PDF_Soldier_Team</t>
+  </si>
+  <si>
+    <t>Military_Soldier_Team</t>
+  </si>
+  <si>
+    <t>Scavenger_Team</t>
+  </si>
+  <si>
+    <t>Heavy_Scavenger_Team</t>
+  </si>
+  <si>
+    <t>Light_Mercenary_Team</t>
+  </si>
+  <si>
+    <t>Mercenary_Team</t>
+  </si>
+  <si>
+    <t>Elite_Mercenary_Team</t>
+  </si>
+  <si>
+    <t>Navy_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Enforcer_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Army_Guard_Squad</t>
+  </si>
+  <si>
+    <t>Army_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Medium_Armytrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Medic_Armytrooper_Squad</t>
+  </si>
+  <si>
+    <t>Pentastar_Army_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Pentastar_Medium_Armytrooper_Squad</t>
+  </si>
+  <si>
+    <t>Pentastar_Medic_Armytrooper_Squad</t>
+  </si>
+  <si>
+    <t>EVO_Trooper_Platoon</t>
+  </si>
+  <si>
+    <t>Imperial_Compforce_Assault_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Navy_Commando_Squad</t>
+  </si>
+  <si>
+    <t>Army_Special_Missions_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_ISB_Infiltrator_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_IntSec_Operator_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Medium_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Medic_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Ysalamiri_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Dark_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Shadow_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Royal_Guard_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Elite_Guard_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Nova_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Incinerator_Stormtrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Army_Commando_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Fleet_Commando_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Fleet_Commando_Sniper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Guardian_Protector_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Scout_Trooper_Assault_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Scout_Trooper_Sniper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Scout_Trooper_Commando_Squad</t>
+  </si>
+  <si>
+    <t>Zsinj_Raptor_Squad</t>
+  </si>
+  <si>
+    <t>Zsinj_Raptor_Medic_Squad</t>
+  </si>
+  <si>
+    <t>Storm_Commando_Platoon</t>
+  </si>
+  <si>
+    <t>Imperial_Jumptrooper_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_EWEB_Company</t>
+  </si>
+  <si>
+    <t>Imperial_74Z_Bike_Company</t>
+  </si>
+  <si>
+    <t>Zsinj_74Z_Bike_Company</t>
+  </si>
+  <si>
+    <t>Imperial_BARC_Company</t>
+  </si>
+  <si>
+    <t>Imperial_64Y_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Dwarf_Spider_Droid_Squad</t>
+  </si>
+  <si>
+    <t>Noghri_Assassin_Squad</t>
+  </si>
+  <si>
+    <t>Imperial_Dark_Jedi_Squad</t>
+  </si>
+  <si>
+    <t>Dark_Jedi_Squad</t>
+  </si>
+  <si>
+    <t>Night_Sister_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Chrysalide_Company</t>
+  </si>
+  <si>
+    <t>Imperial_PX10_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_PT_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_RT_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_MP_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_ST_Company</t>
+  </si>
+  <si>
+    <t>Imperial_1L_Tank_Company</t>
+  </si>
+  <si>
+    <t>Imperial_ULAV_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_ST_A_Company</t>
+  </si>
+  <si>
+    <t>Imperial_ISP_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Repulsor_Scout_Company</t>
+  </si>
+  <si>
+    <t>Imperial_RTT_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Gaba18_Group</t>
+  </si>
+  <si>
+    <t>Imperial_INT4_Group</t>
+  </si>
+  <si>
+    <t>Imperial_AT_DP_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Skiff_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Chariot_LAV_Company</t>
+  </si>
+  <si>
+    <t>Imperial_TIE_Mauler_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Light_Artillery_Company</t>
+  </si>
+  <si>
+    <t>Imperial_UT_AA_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_AP_Walker_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_AA_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Heavy_Artillery_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Missile_Artillery_Company</t>
+  </si>
+  <si>
+    <t>Imperial_APC_Company</t>
+  </si>
+  <si>
+    <t>Imperial_TX130_Company</t>
+  </si>
+  <si>
+    <t>Imperial_1M_Tank_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Flashblind_Group</t>
+  </si>
+  <si>
+    <t>Imperial_Century_Tank_Company</t>
+  </si>
+  <si>
+    <t>Imperial_TNT_Company</t>
+  </si>
+  <si>
+    <t>Imperial_2M_Company</t>
+  </si>
+  <si>
+    <t>Imperial_S_1_Firehawke_Company</t>
+  </si>
+  <si>
+    <t>Imperial_SA5_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Deathhawk_Group</t>
+  </si>
+  <si>
+    <t>Imperial_SPMAG_Company</t>
+  </si>
+  <si>
+    <t>Imperial_1H_Tank_Company</t>
+  </si>
+  <si>
+    <t>Imperial_1H_Tank_Company_Green</t>
+  </si>
+  <si>
+    <t>Imperial_SPMAT_Company</t>
+  </si>
+  <si>
+    <t>Imperial_LAAT_Group</t>
+  </si>
+  <si>
+    <t>Imperial_IDT_Group</t>
+  </si>
+  <si>
+    <t>Imperial_MAAT_Group</t>
+  </si>
+  <si>
+    <t>Imperial_Nemesis_Gunship_Group</t>
+  </si>
+  <si>
+    <t>Imperial_B5_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_TE_Walker_Company</t>
+  </si>
+  <si>
+    <t>Imperial_PX4_Company</t>
+  </si>
+  <si>
+    <t>Imperial_TRMB_Company</t>
+  </si>
+  <si>
+    <t>Imperial_A5_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>Imperial_A9_Fortress_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_AT_Company</t>
+  </si>
+  <si>
+    <t>Imperial_C10_Siege_Tower_Company</t>
+  </si>
+  <si>
+    <t>Imperial_Lancet_Group</t>
+  </si>
+  <si>
+    <t>Imperial_Heavy_Recovery_Vehicle_Company</t>
+  </si>
+  <si>
+    <t>Imperial_AT_AT_Refit_Company</t>
+  </si>
+  <si>
+    <t>Imperial_XR85_Company</t>
+  </si>
+  <si>
+    <t>Imperial_A6_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>X34_Technical_Company</t>
+  </si>
+  <si>
+    <t>ULAV_Early_Company</t>
+  </si>
+  <si>
+    <t>Espo_Walker_Early_Squad</t>
+  </si>
+  <si>
+    <t>ISP_Company</t>
+  </si>
+  <si>
+    <t>AAC_1_Company</t>
+  </si>
+  <si>
+    <t>Arrow_23_Company</t>
+  </si>
+  <si>
+    <t>AA70_Company</t>
+  </si>
+  <si>
+    <t>T1A_Company</t>
+  </si>
+  <si>
+    <t>T2A_Company</t>
+  </si>
+  <si>
+    <t>Freerunner_Early_Company</t>
+  </si>
+  <si>
+    <t>Freerunner_Assault_Company</t>
+  </si>
+  <si>
+    <t>Freerunner_AA_Company</t>
+  </si>
+  <si>
+    <t>SA5_Company_Early_Company</t>
+  </si>
+  <si>
+    <t>T3A_Company</t>
+  </si>
+  <si>
+    <t>T4A_Company</t>
+  </si>
+  <si>
+    <t>MZ8_Tank_Company</t>
+  </si>
+  <si>
+    <t>A4_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>Aratech_Battle_Platform_Company</t>
+  </si>
+  <si>
+    <t>Skyhopper_Group</t>
+  </si>
+  <si>
+    <t>Skyhopper_Antivehicle_Group</t>
+  </si>
+  <si>
+    <t>Skyhopper_Primitive_Group</t>
+  </si>
+  <si>
+    <t>Skyhopper_Security_Group</t>
+  </si>
+  <si>
+    <t>Storm_Cloud_Car_Group</t>
+  </si>
+  <si>
+    <t>JX30_Group</t>
+  </si>
+  <si>
+    <t>Rebel_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Rebel_Infantry_Squad_Deployed</t>
+  </si>
+  <si>
+    <t>Rebel_Support_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Defense_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Rebel_Marine_Squad</t>
+  </si>
+  <si>
+    <t>Rebel_Infiltrator_Team</t>
+  </si>
+  <si>
+    <t>Jedi_Squad</t>
+  </si>
+  <si>
+    <t>Rebel_AAC_2_Company</t>
+  </si>
+  <si>
+    <t>Rebel_T1B_Company</t>
+  </si>
+  <si>
+    <t>Rebel_AA5_Company</t>
+  </si>
+  <si>
+    <t>Rebel_Snowspeeder_Wing</t>
+  </si>
+  <si>
+    <t>Rebel_T2B_Company</t>
+  </si>
+  <si>
+    <t>Rebel_Tracker_Company</t>
+  </si>
+  <si>
+    <t>Rebel_MPTL_Company</t>
+  </si>
+  <si>
+    <t>Rebel_Vwing_Group</t>
+  </si>
+  <si>
+    <t>Rebel_T3B_Company</t>
+  </si>
+  <si>
+    <t>Rebel_Gallofree_HTT_Company</t>
+  </si>
+  <si>
+    <t>Rebel_Freerunner_Company</t>
+  </si>
+  <si>
+    <t>Rebel_T4B_Company</t>
+  </si>
+  <si>
+    <t>MAS_2xB_Company</t>
+  </si>
+  <si>
+    <t>Phalanx_Commando_Team</t>
+  </si>
+  <si>
+    <t>Phalanx_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Phalanx_Medic_Squad</t>
+  </si>
+  <si>
+    <t>Ysalamiri_Phalanx_Squad</t>
+  </si>
+  <si>
+    <t>EotH_Scout_Brigade</t>
+  </si>
+  <si>
+    <t>EotH_Kirov_Brigade</t>
+  </si>
+  <si>
+    <t>Flame_Tank_Company</t>
+  </si>
+  <si>
+    <t>AirStraeker_Company</t>
+  </si>
+  <si>
+    <t>RFT_Brigade</t>
+  </si>
+  <si>
+    <t>MMT_Brigade</t>
+  </si>
+  <si>
+    <t>Mortar_Company</t>
+  </si>
+  <si>
+    <t>Gilzean_Brigade</t>
+  </si>
+  <si>
+    <t>CSA_B1_Droid_Squad</t>
+  </si>
+  <si>
+    <t>CSA_Medium_Droid_Squad</t>
+  </si>
+  <si>
+    <t>Espo_Squad</t>
+  </si>
+  <si>
+    <t>CSA_Medium_Espo_Squad</t>
+  </si>
+  <si>
+    <t>CSA_Medic_Espo_Squad</t>
+  </si>
+  <si>
+    <t>CSA_Destroyer_Droid_Company</t>
+  </si>
+  <si>
+    <t>X10_Group</t>
+  </si>
+  <si>
+    <t>Class_I_Company</t>
+  </si>
+  <si>
+    <t>Espo_Walker_Squad</t>
+  </si>
+  <si>
+    <t>GX12_Company</t>
+  </si>
+  <si>
+    <t>SX20_Company</t>
+  </si>
+  <si>
+    <t>Hailfire_Company</t>
+  </si>
+  <si>
+    <t>Persuader_Company</t>
+  </si>
+  <si>
+    <t>JX40_Group</t>
+  </si>
+  <si>
+    <t>Strikebreaker_Group</t>
+  </si>
+  <si>
+    <t>K222_Group</t>
+  </si>
+  <si>
+    <t>HRG_Commando_Squad</t>
+  </si>
+  <si>
+    <t>Hapan_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Maluri_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Requud_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Galney_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Hapan_LightTank_Company</t>
+  </si>
+  <si>
+    <t>Hapan_Artillery_Company</t>
+  </si>
+  <si>
+    <t>Hapan_Transport_Company</t>
+  </si>
+  <si>
+    <t>Hapan_Silanus_Company</t>
+  </si>
+  <si>
+    <t>Hapan_HeavyTank_Company</t>
+  </si>
+  <si>
+    <t>Hapan_Gunboat_Company</t>
+  </si>
+  <si>
+    <t>SsiRuuk_Squad</t>
+  </si>
+  <si>
+    <t>Yevetha_Infantry_Squad</t>
+  </si>
+  <si>
+    <t>Yevethan_Plex_Squad</t>
+  </si>
+  <si>
+    <t>Talon_Cloud_Car_Group</t>
   </si>
 </sst>
 </file>
@@ -1965,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C3333-FDB8-45E7-97B2-56CE751A9056}">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A480" sqref="A480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5003,9 +5624,1044 @@
         <v>1</v>
       </c>
     </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>732</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1066">
-    <sortCondition ref="A1:A1066"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1008">
+    <sortCondition ref="A1:A1008"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReferenceSheet.xlsx
+++ b/ReferenceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phoenix Rising Work\EaWXStartingForces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75250B17-4DC9-4806-A016-DEC9FB46E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF641BD-6A13-4398-855A-EA842363F70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C98BEB51-DB04-4536-A48A-2E267BCF39ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="748">
   <si>
     <t>Name</t>
   </si>
@@ -2235,6 +2235,51 @@
   </si>
   <si>
     <t>Talon_Cloud_Car_Group</t>
+  </si>
+  <si>
+    <t>Generate_Force_Rebel</t>
+  </si>
+  <si>
+    <t>Generate_Force_Empire</t>
+  </si>
+  <si>
+    <t>Generate_Force_Underworld</t>
+  </si>
+  <si>
+    <t>Generate_Force_Hutts</t>
+  </si>
+  <si>
+    <t>Generate_Force_EmpireoftheHand</t>
+  </si>
+  <si>
+    <t>Generate_Force_Pentastar</t>
+  </si>
+  <si>
+    <t>Generate_Force_Pirates</t>
+  </si>
+  <si>
+    <t>Generate_Force_Teradoc</t>
+  </si>
+  <si>
+    <t>Generate_Force_Hutt_Cartels</t>
+  </si>
+  <si>
+    <t>Generate_Force_Chiss</t>
+  </si>
+  <si>
+    <t>Generate_Force_Corellia</t>
+  </si>
+  <si>
+    <t>Generate_Force_SsiRuuvi_Imperium</t>
+  </si>
+  <si>
+    <t>Generate_Force_Hapes_Consortium</t>
+  </si>
+  <si>
+    <t>Generate_Force_Corporate_Sector</t>
+  </si>
+  <si>
+    <t>Generate_Force_Warlords</t>
   </si>
 </sst>
 </file>
@@ -2588,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C3333-FDB8-45E7-97B2-56CE751A9056}">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A480" sqref="A480"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A487" sqref="A487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6669,10 +6714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36110936-ED2F-4F0C-A705-7877F81B8957}">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8680,6 +8725,81 @@
         <v>1</v>
       </c>
     </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ReferenceSheet.xlsx
+++ b/ReferenceSheet.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Phoenix Rising Work\EaWXStartingForces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Star Wars Empire at War\corruption\Mods\EaWX Starting forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF641BD-6A13-4398-855A-EA842363F70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1187E353-4EDA-4093-89C1-252A905D9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C98BEB51-DB04-4536-A48A-2E267BCF39ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{C98BEB51-DB04-4536-A48A-2E267BCF39ED}"/>
   </bookViews>
   <sheets>
     <sheet name="TRUnits" sheetId="1" r:id="rId1"/>
     <sheet name="TRStructures" sheetId="2" r:id="rId2"/>
+    <sheet name="FotRUnit" sheetId="3" r:id="rId3"/>
+    <sheet name="FotRStructures" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="870">
   <si>
     <t>Name</t>
   </si>
@@ -1286,33 +1288,6 @@
     <t>Pirate_Base</t>
   </si>
   <si>
-    <t>Ground_Empire_Hypervelocity_Gun</t>
-  </si>
-  <si>
-    <t>Ground_Pentastar_Hypervelocity_Gun</t>
-  </si>
-  <si>
-    <t>E_Planetary_Shield</t>
-  </si>
-  <si>
-    <t>P_Planetary_Shield</t>
-  </si>
-  <si>
-    <t>E_Galactic_Turbolaser_Tower_Defenses</t>
-  </si>
-  <si>
-    <t>P_Galactic_Turbolaser_Tower_Defenses</t>
-  </si>
-  <si>
-    <t>T_Galactic_Turbolaser_Tower_Defenses</t>
-  </si>
-  <si>
-    <t>A_Galactic_Turbolaser_Tower_Defenses</t>
-  </si>
-  <si>
-    <t>Z_Galactic_Turbolaser_Tower_Defenses</t>
-  </si>
-  <si>
     <t>Remnant_Capital</t>
   </si>
   <si>
@@ -2280,6 +2255,399 @@
   </si>
   <si>
     <t>Generate_Force_Warlords</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>Pelta_Assault</t>
+  </si>
+  <si>
+    <t>Class_C_Frigate</t>
+  </si>
+  <si>
+    <t>Class_C_Support</t>
+  </si>
+  <si>
+    <t>Carrack_Cruiser_Lasers</t>
+  </si>
+  <si>
+    <t>Dreadnaught_Lasers</t>
+  </si>
+  <si>
+    <t>Dreadnaught</t>
+  </si>
+  <si>
+    <t>Generic_Mandator</t>
+  </si>
+  <si>
+    <t>Pursuer_Enforcement_Ship_Squadron</t>
+  </si>
+  <si>
+    <t>Diamond_Frigate</t>
+  </si>
+  <si>
+    <t>Hardcell</t>
+  </si>
+  <si>
+    <t>Hardcell_Tender</t>
+  </si>
+  <si>
+    <t>Lupus_Missile_Frigate</t>
+  </si>
+  <si>
+    <t>Geonosian_Cruiser</t>
+  </si>
+  <si>
+    <t>C9979_Carrier</t>
+  </si>
+  <si>
+    <t>C9979_Carrier_Subfaction</t>
+  </si>
+  <si>
+    <t>Munifex</t>
+  </si>
+  <si>
+    <t>CIS_Dreadnaught_Lasers</t>
+  </si>
+  <si>
+    <t>CIS_Dreadnaught</t>
+  </si>
+  <si>
+    <t>Auxilia</t>
+  </si>
+  <si>
+    <t>Storm_Fleet_Destroyer</t>
+  </si>
+  <si>
+    <t>Supply_Ship</t>
+  </si>
+  <si>
+    <t>Recusant_Dreadnought</t>
+  </si>
+  <si>
+    <t>Providence_Dreadnought</t>
+  </si>
+  <si>
+    <t>Auxiliary_Lucrehulk</t>
+  </si>
+  <si>
+    <t>Auxiliary_Lucrehulk_Control</t>
+  </si>
+  <si>
+    <t>Generic_Lucrehulk</t>
+  </si>
+  <si>
+    <t>Generic_Lucrehulk_Control</t>
+  </si>
+  <si>
+    <t>Battleship_Lucrehulk</t>
+  </si>
+  <si>
+    <t>Subjugator</t>
+  </si>
+  <si>
+    <t>Sabaoth_Frigate</t>
+  </si>
+  <si>
+    <t>Sabaoth_Hex_Deployer</t>
+  </si>
+  <si>
+    <t>Sabaoth_Destroyer</t>
+  </si>
+  <si>
+    <t>Ground_Hypervelocity_Gun</t>
+  </si>
+  <si>
+    <t>Generic_Planetary_Shield</t>
+  </si>
+  <si>
+    <t>Generic_Galactic_Turbolaser_Tower_Defenses</t>
+  </si>
+  <si>
+    <t>Rothana_HQ</t>
+  </si>
+  <si>
+    <t>Free_Dac_HQ</t>
+  </si>
+  <si>
+    <t>ORSF_HQ</t>
+  </si>
+  <si>
+    <t>Commerce_Guild_HQ</t>
+  </si>
+  <si>
+    <t>Geonosian_HQ</t>
+  </si>
+  <si>
+    <t>Haor_Chall_HQ</t>
+  </si>
+  <si>
+    <t>Colicoid_HQ</t>
+  </si>
+  <si>
+    <t>Baktoid_HQ</t>
+  </si>
+  <si>
+    <t>Techno_Union_HQ</t>
+  </si>
+  <si>
+    <t>Retail_Caucus_HQ</t>
+  </si>
+  <si>
+    <t>Jedi_Temple</t>
+  </si>
+  <si>
+    <t>Rishi_Station</t>
+  </si>
+  <si>
+    <t>Anaxes_War_College</t>
+  </si>
+  <si>
+    <t>Tactical_Droid_Factory</t>
+  </si>
+  <si>
+    <t>SF_Ground_Barracks</t>
+  </si>
+  <si>
+    <t>SF_Ground_Light_Vehicle_Factory</t>
+  </si>
+  <si>
+    <t>SF_Ground_Advanced_Vehicle_Factory</t>
+  </si>
+  <si>
+    <t>Secondary_Haven</t>
+  </si>
+  <si>
+    <t>Secondary_TF_Outpost</t>
+  </si>
+  <si>
+    <t>Secondary_Golan_One</t>
+  </si>
+  <si>
+    <t>Secondary_Golan_Two</t>
+  </si>
+  <si>
+    <t>Republic_Navy_Trooper_Squad</t>
+  </si>
+  <si>
+    <t>Republic_Trooper_Team</t>
+  </si>
+  <si>
+    <t>Kotas_Militia_Trooper_Team</t>
+  </si>
+  <si>
+    <t>Clonetrooper_Phase_One_Team</t>
+  </si>
+  <si>
+    <t>Clonetrooper_Phase_Two_Team</t>
+  </si>
+  <si>
+    <t>ARC_Phase_One_Team</t>
+  </si>
+  <si>
+    <t>ARC_Phase_Two_Team</t>
+  </si>
+  <si>
+    <t>Clone_Commando_Team</t>
+  </si>
+  <si>
+    <t>Republic_Jedi_Squad</t>
+  </si>
+  <si>
+    <t>Senate_Commando_Platoon</t>
+  </si>
+  <si>
+    <t>Clone_Jumptrooper_Phase_One_Company</t>
+  </si>
+  <si>
+    <t>Clone_Jumptrooper_Phase_Two_Company</t>
+  </si>
+  <si>
+    <t>Clone_Galactic_Marine_Platoon</t>
+  </si>
+  <si>
+    <t>Clone_Special_Ops_Platoon</t>
+  </si>
+  <si>
+    <t>Republic_Overracer_Speeder_Bike_Company</t>
+  </si>
+  <si>
+    <t>Republic_74Z_Bike_Company</t>
+  </si>
+  <si>
+    <t>Republic_BARC_Company</t>
+  </si>
+  <si>
+    <t>Republic_SD_6_Droid_Company</t>
+  </si>
+  <si>
+    <t>Republic_AT_RT_Company</t>
+  </si>
+  <si>
+    <t>Republic_AT_PT_Company</t>
+  </si>
+  <si>
+    <t>Republic_ISP_Company</t>
+  </si>
+  <si>
+    <t>Republic_ULAV_Company</t>
+  </si>
+  <si>
+    <t>Republic_AT_XT_Company</t>
+  </si>
+  <si>
+    <t>Republic_Gaba18_Group</t>
+  </si>
+  <si>
+    <t>Republic_Flashblind_Group</t>
+  </si>
+  <si>
+    <t>Republic_TX130_Company</t>
+  </si>
+  <si>
+    <t>Republic_AV7_Company</t>
+  </si>
+  <si>
+    <t>Republic_AT_AP_Walker_Company</t>
+  </si>
+  <si>
+    <t>Republic_UT_AA_Company</t>
+  </si>
+  <si>
+    <t>Republic_LAAT_Group</t>
+  </si>
+  <si>
+    <t>Republic_HAET_Group</t>
+  </si>
+  <si>
+    <t>Republic_VAAT_Group</t>
+  </si>
+  <si>
+    <t>Republic_UT_AT_Speeder_Company</t>
+  </si>
+  <si>
+    <t>Republic_AT_OT_Walker_Company</t>
+  </si>
+  <si>
+    <t>Republic_AT_TE_Walker_Company</t>
+  </si>
+  <si>
+    <t>Republic_A4_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>Republic_A5_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>Republic_A5RX_Company</t>
+  </si>
+  <si>
+    <t>Republic_RX200_Falchion_Company</t>
+  </si>
+  <si>
+    <t>Republic_A6_Juggernaut_Company</t>
+  </si>
+  <si>
+    <t>B1_Droid_Squad</t>
+  </si>
+  <si>
+    <t>B1_Droid_Marine_Squad</t>
+  </si>
+  <si>
+    <t>B1_RC_Droid_Squad</t>
+  </si>
+  <si>
+    <t>B1_Geo_Droid_Squad</t>
+  </si>
+  <si>
+    <t>B2_Droid_Squad</t>
+  </si>
+  <si>
+    <t>BX_Commando_Squad</t>
+  </si>
+  <si>
+    <t>STAP_Squad</t>
+  </si>
+  <si>
+    <t>CIS_STAP_Squad</t>
+  </si>
+  <si>
+    <t>Crab_Droid_Company</t>
+  </si>
+  <si>
+    <t>Dwarf_Spider_Droid_Company</t>
+  </si>
+  <si>
+    <t>Destroyer_Droid_Company</t>
+  </si>
+  <si>
+    <t>Destroyer_Droid_II_Company</t>
+  </si>
+  <si>
+    <t>LR_57_Combat_Droid_Company</t>
+  </si>
+  <si>
+    <t>B2_RP_Droid_Company</t>
+  </si>
+  <si>
+    <t>OG9_Company</t>
+  </si>
+  <si>
+    <t>PAC_Company</t>
+  </si>
+  <si>
+    <t>GAT_Group</t>
+  </si>
+  <si>
+    <t>CIS_GAT_Group</t>
+  </si>
+  <si>
+    <t>HAML_Company</t>
+  </si>
+  <si>
+    <t>CA_Artillery_Company</t>
+  </si>
+  <si>
+    <t>HAG_Company</t>
+  </si>
+  <si>
+    <t>AAT_Company</t>
+  </si>
+  <si>
+    <t>J1_Artillery_Corp</t>
+  </si>
+  <si>
+    <t>MAF_Group</t>
+  </si>
+  <si>
+    <t>CIS_MAF_Group</t>
+  </si>
+  <si>
+    <t>HMP_Group</t>
+  </si>
+  <si>
+    <t>MTT_Company</t>
+  </si>
+  <si>
+    <t>CIS_MTT_Company</t>
+  </si>
+  <si>
+    <t>Magna_Company</t>
+  </si>
+  <si>
+    <t>Protodeka_Company</t>
+  </si>
+  <si>
+    <t>Colicoid_Swarm</t>
+  </si>
+  <si>
+    <t>Lucid_Voice</t>
+  </si>
+  <si>
+    <t>Generic_Colony_One</t>
+  </si>
+  <si>
+    <t>Generic_Colony_Two</t>
   </si>
 </sst>
 </file>
@@ -2323,6 +2691,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDDDD"/>
+      <color rgb="FFFF4F4F"/>
+      <color rgb="FFFF7979"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2633,18 +3008,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2C3333-FDB8-45E7-97B2-56CE751A9056}">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A487" sqref="A487"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114:C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -2666,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>258</v>
       </c>
@@ -2677,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -2688,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -2699,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2710,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2721,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2732,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2743,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -2754,7 +3129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2765,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2776,7 +3151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>260</v>
       </c>
@@ -2787,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -2798,7 +3173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -2809,7 +3184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -2820,7 +3195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -2831,7 +3206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -2842,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2853,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2864,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -2875,7 +3250,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -2886,7 +3261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>244</v>
       </c>
@@ -2897,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -2908,7 +3283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -2919,7 +3294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -2930,7 +3305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -2941,7 +3316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -2952,7 +3327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -2963,7 +3338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2974,7 +3349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>193</v>
       </c>
@@ -2985,7 +3360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2996,7 +3371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>185</v>
       </c>
@@ -3007,7 +3382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>257</v>
       </c>
@@ -3018,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -3029,7 +3404,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -3040,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -3051,7 +3426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -3062,7 +3437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -3073,7 +3448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3084,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -3095,7 +3470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -3106,7 +3481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3117,7 +3492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3128,7 +3503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3139,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3150,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -3161,7 +3536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>271</v>
       </c>
@@ -3172,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3183,7 +3558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -3194,7 +3569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>178</v>
       </c>
@@ -3205,7 +3580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>247</v>
       </c>
@@ -3216,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -3227,7 +3602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -3238,7 +3613,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -3249,7 +3624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3260,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3271,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -3282,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -3304,7 +3679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>242</v>
       </c>
@@ -3315,7 +3690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -3326,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -3337,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -3348,7 +3723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3359,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3370,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>212</v>
       </c>
@@ -3381,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -3392,7 +3767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -3403,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -3414,7 +3789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -3425,7 +3800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -3436,7 +3811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3447,7 +3822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -3458,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -3469,7 +3844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -3480,7 +3855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -3491,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3502,7 +3877,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>177</v>
       </c>
@@ -3513,7 +3888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -3524,7 +3899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>256</v>
       </c>
@@ -3535,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -3546,7 +3921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3557,7 +3932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>206</v>
       </c>
@@ -3568,7 +3943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +3954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3590,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -3601,7 +3976,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -3612,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>246</v>
       </c>
@@ -3623,7 +3998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -3634,7 +4009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -3645,7 +4020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>237</v>
       </c>
@@ -3656,7 +4031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -3667,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -3678,7 +4053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -3689,7 +4064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -3700,7 +4075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3711,7 +4086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>132</v>
       </c>
@@ -3722,7 +4097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>155</v>
       </c>
@@ -3733,7 +4108,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>153</v>
       </c>
@@ -3744,7 +4119,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>124</v>
       </c>
@@ -3755,7 +4130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -3766,7 +4141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -3777,7 +4152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -3788,7 +4163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -3799,7 +4174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>90</v>
       </c>
@@ -3810,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -3821,7 +4196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -3832,7 +4207,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -3843,7 +4218,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -3854,7 +4229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -3865,7 +4240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -3876,7 +4251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -3887,7 +4262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3898,7 +4273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -3909,7 +4284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -3920,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -3931,7 +4306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>148</v>
       </c>
@@ -3942,7 +4317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -3953,7 +4328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -3964,7 +4339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -3975,7 +4350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -3986,7 +4361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -3997,7 +4372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -4008,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>113</v>
       </c>
@@ -4019,7 +4394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -4030,7 +4405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>101</v>
       </c>
@@ -4041,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -4052,7 +4427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>250</v>
       </c>
@@ -4063,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>235</v>
       </c>
@@ -4074,7 +4449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -4085,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -4096,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -4107,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>228</v>
       </c>
@@ -4118,7 +4493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -4129,7 +4504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4140,7 +4515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>205</v>
       </c>
@@ -4151,7 +4526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -4162,7 +4537,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>74</v>
       </c>
@@ -4173,7 +4548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>182</v>
       </c>
@@ -4184,7 +4559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -4195,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>121</v>
       </c>
@@ -4206,7 +4581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -4217,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -4228,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>126</v>
       </c>
@@ -4239,7 +4614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>230</v>
       </c>
@@ -4250,7 +4625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -4261,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -4272,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>224</v>
       </c>
@@ -4283,7 +4658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -4294,7 +4669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>77</v>
       </c>
@@ -4305,7 +4680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -4316,7 +4691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -4327,7 +4702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>48</v>
       </c>
@@ -4338,7 +4713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -4349,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>174</v>
       </c>
@@ -4360,7 +4735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -4371,7 +4746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>91</v>
       </c>
@@ -4382,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>236</v>
       </c>
@@ -4393,7 +4768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -4404,7 +4779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>142</v>
       </c>
@@ -4415,7 +4790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -4426,7 +4801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>273</v>
       </c>
@@ -4437,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>191</v>
       </c>
@@ -4448,7 +4823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>100</v>
       </c>
@@ -4459,7 +4834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>239</v>
       </c>
@@ -4470,7 +4845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>25</v>
       </c>
@@ -4481,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>54</v>
       </c>
@@ -4492,7 +4867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>56</v>
       </c>
@@ -4503,7 +4878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>81</v>
       </c>
@@ -4514,7 +4889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>118</v>
       </c>
@@ -4525,7 +4900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>129</v>
       </c>
@@ -4536,7 +4911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>147</v>
       </c>
@@ -4547,7 +4922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>157</v>
       </c>
@@ -4558,7 +4933,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -4569,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>143</v>
       </c>
@@ -4580,7 +4955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -4591,7 +4966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>127</v>
       </c>
@@ -4602,7 +4977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>102</v>
       </c>
@@ -4613,7 +4988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>97</v>
       </c>
@@ -4624,7 +4999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>93</v>
       </c>
@@ -4635,7 +5010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>86</v>
       </c>
@@ -4646,7 +5021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>167</v>
       </c>
@@ -4657,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -4668,7 +5043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>44</v>
       </c>
@@ -4679,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>119</v>
       </c>
@@ -4690,7 +5065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>35</v>
       </c>
@@ -4701,7 +5076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>34</v>
       </c>
@@ -4712,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -4723,7 +5098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -4734,7 +5109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -4745,7 +5120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>68</v>
       </c>
@@ -4756,7 +5131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>73</v>
       </c>
@@ -4767,7 +5142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>211</v>
       </c>
@@ -4778,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>245</v>
       </c>
@@ -4789,7 +5164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>186</v>
       </c>
@@ -4800,7 +5175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>187</v>
       </c>
@@ -4811,7 +5186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>190</v>
       </c>
@@ -4822,7 +5197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>171</v>
       </c>
@@ -4833,7 +5208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>156</v>
       </c>
@@ -4844,7 +5219,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>39</v>
       </c>
@@ -4855,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>179</v>
       </c>
@@ -4866,7 +5241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>181</v>
       </c>
@@ -4877,7 +5252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>145</v>
       </c>
@@ -4888,7 +5263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>172</v>
       </c>
@@ -4899,7 +5274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>192</v>
       </c>
@@ -4910,7 +5285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -4921,7 +5296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4932,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -4943,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -4954,7 +5329,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>92</v>
       </c>
@@ -4965,7 +5340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>276</v>
       </c>
@@ -4976,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4987,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>120</v>
       </c>
@@ -4998,7 +5373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>268</v>
       </c>
@@ -5009,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>240</v>
       </c>
@@ -5020,7 +5395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>227</v>
       </c>
@@ -5031,7 +5406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>265</v>
       </c>
@@ -5042,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>173</v>
       </c>
@@ -5053,7 +5428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>50</v>
       </c>
@@ -5064,7 +5439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>214</v>
       </c>
@@ -5075,7 +5450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -5086,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>263</v>
       </c>
@@ -5097,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>261</v>
       </c>
@@ -5108,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>201</v>
       </c>
@@ -5119,7 +5494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>219</v>
       </c>
@@ -5130,7 +5505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -5141,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>269</v>
       </c>
@@ -5152,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>160</v>
       </c>
@@ -5163,7 +5538,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>106</v>
       </c>
@@ -5174,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>275</v>
       </c>
@@ -5185,7 +5560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>46</v>
       </c>
@@ -5196,7 +5571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>198</v>
       </c>
@@ -5207,7 +5582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>188</v>
       </c>
@@ -5218,7 +5593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>52</v>
       </c>
@@ -5229,7 +5604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>53</v>
       </c>
@@ -5240,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>58</v>
       </c>
@@ -5251,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>60</v>
       </c>
@@ -5262,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>61</v>
       </c>
@@ -5273,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>62</v>
       </c>
@@ -5284,7 +5659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -5295,7 +5670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>64</v>
       </c>
@@ -5306,7 +5681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>29</v>
       </c>
@@ -5317,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>180</v>
       </c>
@@ -5328,7 +5703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>166</v>
       </c>
@@ -5339,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>169</v>
       </c>
@@ -5350,7 +5725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>231</v>
       </c>
@@ -5361,7 +5736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -5372,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>218</v>
       </c>
@@ -5383,7 +5758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -5394,7 +5769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>195</v>
       </c>
@@ -5405,7 +5780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>238</v>
       </c>
@@ -5416,7 +5791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>134</v>
       </c>
@@ -5427,7 +5802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>22</v>
       </c>
@@ -5438,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>217</v>
       </c>
@@ -5449,7 +5824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>216</v>
       </c>
@@ -5460,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -5471,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>47</v>
       </c>
@@ -5482,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -5493,7 +5868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -5504,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>82</v>
       </c>
@@ -5515,7 +5890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>164</v>
       </c>
@@ -5526,7 +5901,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>243</v>
       </c>
@@ -5537,7 +5912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>225</v>
       </c>
@@ -5548,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -5559,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -5570,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>274</v>
       </c>
@@ -5581,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>204</v>
       </c>
@@ -5592,7 +5967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>141</v>
       </c>
@@ -5603,7 +5978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>266</v>
       </c>
@@ -5614,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>199</v>
       </c>
@@ -5625,7 +6000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>213</v>
       </c>
@@ -5636,7 +6011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>248</v>
       </c>
@@ -5647,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>72</v>
       </c>
@@ -5658,7 +6033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>254</v>
       </c>
@@ -5669,1039 +6044,1039 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
         <v>723</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -6714,18 +7089,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36110936-ED2F-4F0C-A705-7877F81B8957}">
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C252" sqref="C252"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -6741,7 +7117,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -6749,7 +7125,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>279</v>
       </c>
@@ -6757,7 +7133,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -6765,7 +7141,7 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>281</v>
       </c>
@@ -6773,7 +7149,7 @@
         <v>7545</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>282</v>
       </c>
@@ -6781,7 +7157,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>283</v>
       </c>
@@ -6789,7 +7165,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>284</v>
       </c>
@@ -6797,7 +7173,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -6805,7 +7181,7 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -6813,7 +7189,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>287</v>
       </c>
@@ -6821,7 +7197,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -6829,7 +7205,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -6837,7 +7213,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>290</v>
       </c>
@@ -6845,7 +7221,7 @@
         <v>5069</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -6853,7 +7229,7 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -6861,7 +7237,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>293</v>
       </c>
@@ -6869,7 +7245,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -6877,7 +7253,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -6885,7 +7261,7 @@
         <v>4493</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>296</v>
       </c>
@@ -6893,7 +7269,7 @@
         <v>10818</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>297</v>
       </c>
@@ -6901,7 +7277,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -6909,7 +7285,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>299</v>
       </c>
@@ -6917,7 +7293,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -6925,7 +7301,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>301</v>
       </c>
@@ -6933,7 +7309,7 @@
         <v>9664</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>302</v>
       </c>
@@ -6941,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>303</v>
       </c>
@@ -6949,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>304</v>
       </c>
@@ -6957,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>305</v>
       </c>
@@ -6965,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -6973,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -6981,15 +7357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>308</v>
       </c>
       <c r="B33">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>309</v>
       </c>
@@ -6997,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -7005,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>311</v>
       </c>
@@ -7013,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>312</v>
       </c>
@@ -7021,7 +7397,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>313</v>
       </c>
@@ -7029,7 +7405,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -7037,7 +7413,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>315</v>
       </c>
@@ -7045,7 +7421,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -7053,7 +7429,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>317</v>
       </c>
@@ -7061,7 +7437,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>318</v>
       </c>
@@ -7069,7 +7445,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>319</v>
       </c>
@@ -7077,7 +7453,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>320</v>
       </c>
@@ -7085,7 +7461,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>321</v>
       </c>
@@ -7093,7 +7469,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>322</v>
       </c>
@@ -7101,7 +7477,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>323</v>
       </c>
@@ -7109,7 +7485,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>324</v>
       </c>
@@ -7117,7 +7493,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>325</v>
       </c>
@@ -7125,7 +7501,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>326</v>
       </c>
@@ -7133,7 +7509,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>327</v>
       </c>
@@ -7141,7 +7517,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>328</v>
       </c>
@@ -7149,7 +7525,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>329</v>
       </c>
@@ -7157,7 +7533,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>330</v>
       </c>
@@ -7165,7 +7541,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>331</v>
       </c>
@@ -7173,7 +7549,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>332</v>
       </c>
@@ -7181,7 +7557,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>333</v>
       </c>
@@ -7189,7 +7565,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>334</v>
       </c>
@@ -7197,7 +7573,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>335</v>
       </c>
@@ -7205,7 +7581,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>336</v>
       </c>
@@ -7213,7 +7589,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>337</v>
       </c>
@@ -7221,7 +7597,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>338</v>
       </c>
@@ -7229,7 +7605,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>339</v>
       </c>
@@ -7237,7 +7613,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -7245,7 +7621,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>341</v>
       </c>
@@ -7253,7 +7629,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>342</v>
       </c>
@@ -7261,7 +7637,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>343</v>
       </c>
@@ -7269,7 +7645,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>344</v>
       </c>
@@ -7277,7 +7653,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>345</v>
       </c>
@@ -7285,7 +7661,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>346</v>
       </c>
@@ -7293,7 +7669,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>347</v>
       </c>
@@ -7301,7 +7677,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>348</v>
       </c>
@@ -7309,7 +7685,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>349</v>
       </c>
@@ -7317,7 +7693,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>350</v>
       </c>
@@ -7325,7 +7701,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>351</v>
       </c>
@@ -7333,7 +7709,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -7341,7 +7717,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>353</v>
       </c>
@@ -7349,7 +7725,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>354</v>
       </c>
@@ -7357,7 +7733,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>355</v>
       </c>
@@ -7365,7 +7741,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>356</v>
       </c>
@@ -7373,7 +7749,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>357</v>
       </c>
@@ -7381,7 +7757,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>358</v>
       </c>
@@ -7389,7 +7765,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>359</v>
       </c>
@@ -7397,7 +7773,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>360</v>
       </c>
@@ -7405,7 +7781,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>361</v>
       </c>
@@ -7413,7 +7789,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>362</v>
       </c>
@@ -7421,7 +7797,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>363</v>
       </c>
@@ -7429,7 +7805,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>364</v>
       </c>
@@ -7437,7 +7813,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>365</v>
       </c>
@@ -7445,7 +7821,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>366</v>
       </c>
@@ -7453,7 +7829,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>367</v>
       </c>
@@ -7461,7 +7837,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>368</v>
       </c>
@@ -7469,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>369</v>
       </c>
@@ -7477,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>370</v>
       </c>
@@ -7485,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>371</v>
       </c>
@@ -7493,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>372</v>
       </c>
@@ -7501,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>373</v>
       </c>
@@ -7509,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>374</v>
       </c>
@@ -7517,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>375</v>
       </c>
@@ -7525,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>376</v>
       </c>
@@ -7533,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>377</v>
       </c>
@@ -7541,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>378</v>
       </c>
@@ -7549,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>379</v>
       </c>
@@ -7557,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>380</v>
       </c>
@@ -7565,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>381</v>
       </c>
@@ -7573,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>382</v>
       </c>
@@ -7581,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>383</v>
       </c>
@@ -7589,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>384</v>
       </c>
@@ -7597,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>385</v>
       </c>
@@ -7605,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>386</v>
       </c>
@@ -7613,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>387</v>
       </c>
@@ -7621,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>388</v>
       </c>
@@ -7629,7 +8005,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>389</v>
       </c>
@@ -7637,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>390</v>
       </c>
@@ -7645,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>391</v>
       </c>
@@ -7653,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>392</v>
       </c>
@@ -7661,7 +8037,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>393</v>
       </c>
@@ -7669,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>394</v>
       </c>
@@ -7677,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>395</v>
       </c>
@@ -7685,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>396</v>
       </c>
@@ -7693,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>397</v>
       </c>
@@ -7701,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>398</v>
       </c>
@@ -7709,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>399</v>
       </c>
@@ -7717,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>400</v>
       </c>
@@ -7725,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>401</v>
       </c>
@@ -7733,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>402</v>
       </c>
@@ -7741,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>403</v>
       </c>
@@ -7749,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>404</v>
       </c>
@@ -7757,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>405</v>
       </c>
@@ -7765,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>406</v>
       </c>
@@ -7773,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>407</v>
       </c>
@@ -7781,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>408</v>
       </c>
@@ -7789,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>409</v>
       </c>
@@ -7797,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -7805,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>411</v>
       </c>
@@ -7813,7 +8189,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -7821,7 +8197,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>413</v>
       </c>
@@ -7829,7 +8205,7 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>414</v>
       </c>
@@ -7837,7 +8213,7 @@
         <v>5069</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>415</v>
       </c>
@@ -7845,959 +8221,2778 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>772</v>
       </c>
       <c r="B141">
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>773</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>774</v>
+      </c>
+      <c r="B143">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>416</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>417</v>
       </c>
-      <c r="B142">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>419</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>420</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>421</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>422</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>423</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>425</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>426</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>427</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>428</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>429</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>430</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>431</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>432</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>433</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>434</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>435</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>436</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>437</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>438</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>439</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>440</v>
+      </c>
+      <c r="B168">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>441</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>442</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>443</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>444</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>445</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>446</v>
+      </c>
+      <c r="B174">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>447</v>
+      </c>
+      <c r="B175">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>448</v>
+      </c>
+      <c r="B176">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>449</v>
+      </c>
+      <c r="B177">
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>450</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>451</v>
+      </c>
+      <c r="B179">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>452</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>453</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>454</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>455</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>456</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>457</v>
+      </c>
+      <c r="B185">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>458</v>
+      </c>
+      <c r="B186">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>459</v>
+      </c>
+      <c r="B187">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>460</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>461</v>
+      </c>
+      <c r="B189">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>462</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>463</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>464</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>465</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>466</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>467</v>
+      </c>
+      <c r="B195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>468</v>
+      </c>
+      <c r="B196">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>469</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>470</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>471</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>472</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>473</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>474</v>
+      </c>
+      <c r="B202">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>475</v>
+      </c>
+      <c r="B203">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>476</v>
+      </c>
+      <c r="B204">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>477</v>
+      </c>
+      <c r="B205">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>478</v>
+      </c>
+      <c r="B206">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>479</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>480</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>481</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>482</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>483</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>484</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>485</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>486</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>487</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>488</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>490</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>491</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>492</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>493</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>495</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>496</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>498</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>499</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>500</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>501</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>502</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>503</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>504</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>505</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>506</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>507</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>508</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>509</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>510</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>511</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>512</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>513</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>514</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>515</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>516</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCA6439-EAE8-4CC8-B1CF-E81A74B83C20}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>385</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>836</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>510</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F3">
+        <v>883</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>802</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>837</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B4">
+        <v>464</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F4">
+        <v>2464</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>803</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>838</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F5">
+        <v>2367</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>808</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>839</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>767</v>
+      </c>
+      <c r="F6">
+        <v>8813</v>
+      </c>
+      <c r="G6">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>806</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>840</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7">
+        <v>177</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7">
+        <v>1537</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>807</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>841</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8">
+        <v>2913</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>809</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>842</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>203</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>799</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>843</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>754</v>
+      </c>
+      <c r="F10">
+        <v>104</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>800</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>844</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11">
+        <v>699</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>513</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>798</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>845</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>501</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>757</v>
+      </c>
+      <c r="F12">
+        <v>699</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>811</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>846</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>744</v>
+      </c>
+      <c r="B13">
+        <v>536</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>756</v>
+      </c>
+      <c r="F13">
+        <v>536</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>831</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>847</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>186</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>748</v>
+      </c>
+      <c r="F14">
+        <v>190</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>832</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>848</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>739</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>765</v>
+      </c>
+      <c r="F15">
+        <v>5499</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>833</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>849</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <v>969</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>766</v>
+      </c>
+      <c r="F16">
+        <v>5294</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>835</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>850</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>858</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>1354</v>
+      </c>
+      <c r="G17">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>823</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>851</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>822</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>752</v>
+      </c>
+      <c r="F18">
+        <v>282</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>829</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>704</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>879</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>815</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>852</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>746</v>
+      </c>
+      <c r="B20">
+        <v>10099</v>
+      </c>
+      <c r="C20">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>749</v>
+      </c>
+      <c r="F20">
+        <v>165</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>814</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>853</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21">
+        <v>13772</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>750</v>
+      </c>
+      <c r="F21">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>830</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>854</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>7577</v>
+      </c>
+      <c r="C22">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>125</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>818</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>855</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23">
+        <v>3596</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23">
+        <v>536</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>822</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>856</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>2754</v>
+      </c>
+      <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>751</v>
+      </c>
+      <c r="F24">
+        <v>174</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>812</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>705</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25">
+        <v>3168</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>275</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>820</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>857</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26">
+        <v>1089</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>755</v>
+      </c>
+      <c r="F26">
+        <v>415</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>819</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>858</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27">
+        <v>1440</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>998</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>826</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>859</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28">
+        <v>1517</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>762</v>
+      </c>
+      <c r="F28">
+        <v>3069</v>
+      </c>
+      <c r="G28">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s">
+        <v>816</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>860</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29">
+        <v>2052</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>747</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>804</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>861</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>739</v>
+      </c>
+      <c r="B30">
+        <v>95</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>1054</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>825</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>862</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>404</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>761</v>
+      </c>
+      <c r="F31">
+        <v>2121</v>
+      </c>
+      <c r="G31">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>796</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>863</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>740</v>
+      </c>
+      <c r="B32">
+        <v>301</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>771</v>
+      </c>
+      <c r="F32">
+        <v>1067</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>810</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>864</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>769</v>
+      </c>
+      <c r="F33">
+        <v>263</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>834</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>865</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>508</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>770</v>
+      </c>
+      <c r="F34">
+        <v>282</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>813</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>759</v>
+      </c>
+      <c r="F35">
+        <v>1316</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>797</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>768</v>
+      </c>
+      <c r="F36">
+        <v>9325</v>
+      </c>
+      <c r="G36">
+        <v>98</v>
+      </c>
+      <c r="I36" t="s">
+        <v>821</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>760</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>817</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>824</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>828</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>866</v>
+      </c>
+      <c r="F40">
+        <v>1354</v>
+      </c>
+      <c r="G40">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>827</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>867</v>
+      </c>
+      <c r="F41">
+        <v>1354</v>
+      </c>
+      <c r="G41">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>805</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J43">
+    <sortCondition ref="I2:I43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9A4DF2-E9B5-4B75-843B-4A3B018C858D}">
+  <dimension ref="A1:B79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>868</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>869</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>772</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>773</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>774</v>
+      </c>
+      <c r="B30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>418</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>419</v>
       </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>420</v>
       </c>
-      <c r="B145">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>421</v>
       </c>
-      <c r="B146">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>422</v>
-      </c>
-      <c r="B147">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>423</v>
-      </c>
-      <c r="B148">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>424</v>
-      </c>
-      <c r="B149">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>425</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>452</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>454</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>456</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>789</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>790</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>791</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>792</v>
+      </c>
+      <c r="B46">
         <v>426</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>427</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>428</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>429</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>430</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>431</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>432</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>433</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>434</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>435</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>436</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>437</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>438</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>439</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>440</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>441</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>442</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>443</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>444</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>445</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>446</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>447</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>448</v>
-      </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>449</v>
-      </c>
-      <c r="B174">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>450</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>451</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>452</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>453</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>454</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>455</v>
-      </c>
-      <c r="B180">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>793</v>
+      </c>
+      <c r="B47">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>794</v>
+      </c>
+      <c r="B48">
         <v>1714</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>456</v>
-      </c>
-      <c r="B181">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>795</v>
+      </c>
+      <c r="B49">
         <v>2869</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>457</v>
-      </c>
-      <c r="B182">
-        <v>4616</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>458</v>
-      </c>
-      <c r="B183">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>459</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>460</v>
-      </c>
-      <c r="B185">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>461</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>462</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>463</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>464</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>465</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>466</v>
-      </c>
-      <c r="B191">
-        <v>10818</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>467</v>
-      </c>
-      <c r="B192">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>468</v>
-      </c>
-      <c r="B193">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>469</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>470</v>
-      </c>
-      <c r="B195">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>471</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>472</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>473</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>474</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>475</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>476</v>
-      </c>
-      <c r="B201">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>477</v>
-      </c>
-      <c r="B202">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>478</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>479</v>
-      </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>480</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>481</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>482</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>483</v>
-      </c>
-      <c r="B208">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>484</v>
-      </c>
-      <c r="B209">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>485</v>
-      </c>
-      <c r="B210">
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>486</v>
-      </c>
-      <c r="B211">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>487</v>
-      </c>
-      <c r="B212">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>488</v>
-      </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>489</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>490</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>491</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>492</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>493</v>
-      </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>494</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>495</v>
-      </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>496</v>
-      </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>497</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>498</v>
-      </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>499</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>500</v>
-      </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>501</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>502</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>503</v>
-      </c>
-      <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>504</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>505</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>506</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>507</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>508</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>509</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>510</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>511</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>512</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>513</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>514</v>
-      </c>
-      <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>515</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>516</v>
-      </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>517</v>
-      </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>518</v>
-      </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>519</v>
-      </c>
-      <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>520</v>
-      </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>521</v>
-      </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>522</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>523</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>524</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>525</v>
-      </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>747</v>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>775</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>776</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>385</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>372</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>393</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>777</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>399</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>400</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>397</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>394</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>395</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>778</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>779</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>780</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>781</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>782</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>783</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>784</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>785</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>786</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>787</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>408</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>788</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
